--- a/Teacher State Transition.xlsx
+++ b/Teacher State Transition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Innovative Product Development\Main\Work\New\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88B17A2C-29F8-440D-B453-31AFC8EA980E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9BBE47C4-E952-4E35-ADF5-027FEDD5F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{722E9642-D5B4-4FB7-A57A-2456D5CD76E8}"/>
   </bookViews>
@@ -914,7 +914,7 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Teacher State Transition.xlsx
+++ b/Teacher State Transition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Innovative Product Development\Main\Work\New\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9BBE47C4-E952-4E35-ADF5-027FEDD5F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{412F347C-CA8C-478C-8D0F-1C0A8D854245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{722E9642-D5B4-4FB7-A57A-2456D5CD76E8}"/>
   </bookViews>
@@ -914,10 +914,20 @@
   <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
